--- a/ResultadoEleicoesDistritos/LEIRIA_PEDRÓGÃO GRANDE.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_PEDRÓGÃO GRANDE.xlsx
@@ -597,64 +597,64 @@
         <v>902</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="J2" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="T2" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
